--- a/correlation-to-add.xlsx
+++ b/correlation-to-add.xlsx
@@ -1,38 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Articles/InTheWorks/Ullmann/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99FBB7D0-DD03-D24A-BF57-11FB58EB1418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467B06CF-9935-1446-8ECE-B66D90A5EE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{3443FCC9-A221-2F4C-8F82-5290AC19409C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$7:$A$8</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$7:$A$8</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$7:$B$8</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$7:$B$8</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$7:$A$8</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$7:$B$8</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$2:$C$4</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -167,7 +150,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD74E6CD-6E4E-AE4E-8BB7-8E74843F2A07}" type="CELLRANGE">
+                    <a:fld id="{16ED0453-3541-3C47-9D24-1DFE0CA6D15B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -201,7 +184,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37B56D33-69CB-D744-A67D-ED16645A659D}" type="CELLRANGE">
+                    <a:fld id="{D685CD49-3546-EA48-9D5A-9388C87CB98E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -235,7 +218,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4E2FC18-8146-6644-9BE7-45E956E6D502}" type="CELLRANGE">
+                    <a:fld id="{680D307E-21BC-8A4D-ACD5-E0B81EEA22D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -263,7 +246,9 @@
               </c:extLst>
             </c:dLbl>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -407,11 +392,11 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="38100" cap="rnd">
+              <a:ln w="50800" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -467,7 +452,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="50800" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
@@ -515,6 +500,165 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="44450" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$12:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57750000000000012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5663-4841-AC3B-C6C92951516B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97750000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000030-5663-4841-AC3B-C6C92951516B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$18:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000031-5663-4841-AC3B-C6C92951516B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -530,6 +674,7 @@
         <c:axId val="1627999344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1439,12 +1584,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.14713</cdr:x>
-      <cdr:y>0.69947</cdr:y>
+      <cdr:x>0.13687</cdr:x>
+      <cdr:y>0.64161</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.44302</cdr:x>
-      <cdr:y>0.78232</cdr:y>
+      <cdr:x>0.41677</cdr:x>
+      <cdr:y>0.7886</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1459,8 +1604,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1103253" y="3338177"/>
-          <a:ext cx="2218704" cy="395399"/>
+          <a:off x="1028193" y="3070036"/>
+          <a:ext cx="2102562" cy="703314"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1470,7 +1615,7 @@
         <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1800" b="0" i="0">
               <a:solidFill>
@@ -1479,7 +1624,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Adatom catalysis</a:t>
+            <a:t>Competitive adatom catalysis</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -1487,127 +1632,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.37915</cdr:x>
-      <cdr:y>0.33511</cdr:y>
+      <cdr:x>0.61502</cdr:x>
+      <cdr:y>0.45583</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.86126</cdr:x>
-      <cdr:y>0.41004</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DCDEDA7-A9FA-694F-9B62-47D17F137D3F}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20700000">
-          <a:off x="2842992" y="1599305"/>
-          <a:ext cx="3615093" cy="357598"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Line of thermoneutral extraction</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.56937</cdr:x>
-      <cdr:y>0.50626</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.8973</cdr:x>
-      <cdr:y>0.63677</cdr:y>
+      <cdr:x>0.94295</cdr:x>
+      <cdr:y>0.58634</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1622,12 +1652,15 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4269362" y="2416094"/>
-          <a:ext cx="2458936" cy="622863"/>
+          <a:off x="4619959" y="2181098"/>
+          <a:ext cx="2463382" cy="624476"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </cdr:spPr>
       <cdr:txBody>
         <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1">
@@ -1716,12 +1749,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.14011</cdr:x>
-      <cdr:y>0.08534</cdr:y>
+      <cdr:x>0.20097</cdr:x>
+      <cdr:y>0.05526</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.57117</cdr:x>
-      <cdr:y>0.16027</cdr:y>
+      <cdr:x>0.63203</cdr:x>
+      <cdr:y>0.13019</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1736,8 +1769,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1050586" y="407293"/>
-          <a:ext cx="3232286" cy="357598"/>
+          <a:off x="1509694" y="264414"/>
+          <a:ext cx="3238086" cy="358531"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1817,12 +1850,129 @@
           <a:r>
             <a:rPr lang="en-US" sz="1800" b="0" i="0">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>Adatom extraction is difficult</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.27721</cdr:x>
+      <cdr:y>0.35937</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.87002</cdr:x>
+      <cdr:y>0.43434</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DCDEDA7-A9FA-694F-9B62-47D17F137D3F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20700000">
+          <a:off x="2082402" y="1719535"/>
+          <a:ext cx="4453111" cy="358722"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Line of thermoneutral assisted extraction</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -2128,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB89E97D-DC6B-DB41-89B8-F06F9218ECE9}">
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2216,6 +2366,57 @@
         <v>0.60524999999999995</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1.5</v>
+      </c>
+      <c r="B13">
+        <f>$B$12-0.515*A13</f>
+        <v>0.57750000000000012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1.5</v>
+      </c>
+      <c r="B16">
+        <f>$B$15-0.515*A16</f>
+        <v>0.97750000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1.5</v>
+      </c>
+      <c r="B19">
+        <f>$B$18-0.515*A19</f>
+        <v>1.6475</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/correlation-to-add.xlsx
+++ b/correlation-to-add.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Articles/InTheWorks/Ullmann/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467B06CF-9935-1446-8ECE-B66D90A5EE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429C93C4-BD4F-9542-AE9D-C64205245E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{3443FCC9-A221-2F4C-8F82-5290AC19409C}"/>
   </bookViews>
@@ -86,6 +86,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFE4E4"/>
+      <color rgb="FFFFC5C6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -150,7 +156,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16ED0453-3541-3C47-9D24-1DFE0CA6D15B}" type="CELLRANGE">
+                    <a:fld id="{0C2152DE-F483-DA48-A4D3-891AD158A385}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -184,7 +190,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D685CD49-3546-EA48-9D5A-9388C87CB98E}" type="CELLRANGE">
+                    <a:fld id="{4E20F4F9-234C-274F-9236-5B5B705B6B22}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -218,7 +224,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{680D307E-21BC-8A4D-ACD5-E0B81EEA22D6}" type="CELLRANGE">
+                    <a:fld id="{221FF5C1-0882-B64E-82FA-9DCA0BF8BC21}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -945,6 +951,821 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="46"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="46"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-332B-1B4A-8CD8-BD84C3464866}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="46"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-332B-1B4A-8CD8-BD84C3464866}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{49B4CFD4-48F6-9847-AC6F-6832BE73A50B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-332B-1B4A-8CD8-BD84C3464866}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8F71A130-6D12-4342-A6D0-D2ED1AB62112}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-332B-1B4A-8CD8-BD84C3464866}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{97862748-4A80-7E43-A7F2-90DED08770AF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-332B-1B4A-8CD8-BD84C3464866}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$D$2:$D$4</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>Au</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Ag</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Cu</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-332B-1B4A-8CD8-BD84C3464866}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="50800" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:backward val="0.4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-332B-1B4A-8CD8-BD84C3464866}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32199999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-332B-1B4A-8CD8-BD84C3464866}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="44450" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$12:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57750000000000012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-332B-1B4A-8CD8-BD84C3464866}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97750000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-332B-1B4A-8CD8-BD84C3464866}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$18:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-332B-1B4A-8CD8-BD84C3464866}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1627999344"/>
+        <c:axId val="1627980240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1627999344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Increased phenyl-adatom binding</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1627980240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1627980240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Metal-metal binding</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="41275">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1627999344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="25000"/>
+              <a:lumOff val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2800" b="0" i="0">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -985,7 +1806,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1534,6 +2911,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>241301</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D90FA0-E91E-604A-8333-D158845EE19D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1973,6 +3388,518 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>Line of thermoneutral assisted extraction</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08745</cdr:x>
+      <cdr:y>0.55228</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.8025</cdr:x>
+      <cdr:y>0.88424</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="Right Triangle 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D353D69C-8BCB-3444-B50A-52F3710DCEA4}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="601763" y="2948832"/>
+          <a:ext cx="4920617" cy="1772462"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.46337</cdr:x>
+      <cdr:y>0.54369</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.58603</cdr:x>
+      <cdr:y>0.71845</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404879A4-9151-D749-93AC-0EE43A7750FC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3454400" y="2844800"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08108</cdr:x>
+      <cdr:y>0.72124</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.51756</cdr:x>
+      <cdr:y>0.86823</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{806DF1B4-B736-C24F-9D6C-56480FCDD469}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="557067" y="3810432"/>
+          <a:ext cx="2998932" cy="776577"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Adatom catalysis</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.66174</cdr:x>
+      <cdr:y>0.45223</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97169</cdr:x>
+      <cdr:y>0.78234</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5BBF1A7-9F0E-E94F-B985-7436D94298F8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4546599" y="2389218"/>
+          <a:ext cx="2129597" cy="1744067"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>C-C bond formation on adatoms is slow</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.09351</cdr:x>
+      <cdr:y>0.04598</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.77634</cdr:x>
+      <cdr:y>0.14161</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A724B4-5BB2-4C44-8434-EFD425EA7E32}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="642497" y="242900"/>
+          <a:ext cx="4691502" cy="505267"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFE4E4">
+            <a:alpha val="84000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Adatom extraction is difficult</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.21225</cdr:x>
+      <cdr:y>0.35917</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97207</cdr:x>
+      <cdr:y>0.46477</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DCDEDA7-A9FA-694F-9B62-47D17F137D3F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20640000">
+          <a:off x="1465494" y="1897587"/>
+          <a:ext cx="5246213" cy="557886"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Line of thermoneutral extraction</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -2280,8 +4207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB89E97D-DC6B-DB41-89B8-F06F9218ECE9}">
   <dimension ref="A2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/correlation-to-add.xlsx
+++ b/correlation-to-add.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Articles/InTheWorks/Ullmann/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429C93C4-BD4F-9542-AE9D-C64205245E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FA3A14-30E3-324B-8F43-8EB0571525FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{3443FCC9-A221-2F4C-8F82-5290AC19409C}"/>
   </bookViews>
@@ -88,8 +88,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC5C6"/>
       <color rgb="FFFFE4E4"/>
-      <color rgb="FFFFC5C6"/>
     </mruColors>
   </colors>
   <extLst>
@@ -156,7 +156,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C2152DE-F483-DA48-A4D3-891AD158A385}" type="CELLRANGE">
+                    <a:fld id="{5B4044E1-587C-5B42-8750-8E4FD76E4342}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -190,7 +190,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E20F4F9-234C-274F-9236-5B5B705B6B22}" type="CELLRANGE">
+                    <a:fld id="{5D68813D-833C-DF4B-8746-4C7F146D1F01}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -224,7 +224,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{221FF5C1-0882-B64E-82FA-9DCA0BF8BC21}" type="CELLRANGE">
+                    <a:fld id="{1D22CC25-B86A-6149-BAD6-C42A9DD0818C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -261,13 +261,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -318,13 +316,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.35</c:v>
+                  <c:v>1.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -407,7 +405,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:backward val="0.4"/>
+            <c:forward val="0.1"/>
+            <c:backward val="0.5"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -418,13 +417,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.35</c:v>
+                  <c:v>1.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -491,10 +490,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0429999999999999</c:v>
+                  <c:v>1.026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32199999999999995</c:v>
+                  <c:v>0.35680000000000012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,7 +546,7 @@
                   <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57750000000000012</c:v>
+                  <c:v>0.63300000000000012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -600,7 +599,7 @@
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97750000000000004</c:v>
+                  <c:v>1.0329999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,7 +615,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
@@ -653,7 +652,7 @@
                   <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6475</c:v>
+                  <c:v>1.7029999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -681,6 +680,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -691,7 +691,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -705,13 +705,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Δ: phenyl-metal</a:t>
+                  <a:t>Δ: phenyl-metal binding enegy, eV</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> binding enegy, eV</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -728,7 +723,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -766,7 +761,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -797,11 +792,11 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -815,13 +810,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Energy of unassisted extraction</a:t>
+                  <a:t>Energy of unassisted extraction, eV</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>, eV</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -834,11 +824,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -876,7 +866,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -934,7 +924,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1800" b="0" i="0">
+        <a:defRPr sz="2000" b="0" i="0">
           <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
@@ -1061,7 +1051,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49B4CFD4-48F6-9847-AC6F-6832BE73A50B}" type="CELLRANGE">
+                    <a:fld id="{303C4439-05F2-A34E-84D0-682770F527FE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1095,7 +1085,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F71A130-6D12-4342-A6D0-D2ED1AB62112}" type="CELLRANGE">
+                    <a:fld id="{3874007C-816B-D94A-96B8-C892502CB90B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1129,7 +1119,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97862748-4A80-7E43-A7F2-90DED08770AF}" type="CELLRANGE">
+                    <a:fld id="{769890F0-E86E-B44A-8EBC-E31160C1C6A7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1219,13 +1209,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.35</c:v>
+                  <c:v>1.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1307,13 +1297,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.35</c:v>
+                  <c:v>1.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,10 +1370,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0429999999999999</c:v>
+                  <c:v>1.026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32199999999999995</c:v>
+                  <c:v>0.35680000000000012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,7 +1426,7 @@
                   <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57750000000000012</c:v>
+                  <c:v>0.63300000000000012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1489,7 +1479,7 @@
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97750000000000004</c:v>
+                  <c:v>1.0329999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1517,6 +1507,28 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-6076-CA45-AE10-0104043ADF14}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$18:$A$19</c:f>
@@ -1542,7 +1554,7 @@
                   <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6475</c:v>
+                  <c:v>1.7029999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2885,13 +2897,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>756596</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>67554</xdr:rowOff>
+      <xdr:rowOff>67553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>13511</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>178844</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3003,7 +3015,7 @@
       <cdr:y>0.64161</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.41677</cdr:x>
+      <cdr:x>0.43997</cdr:x>
       <cdr:y>0.7886</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -3019,8 +3031,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1028193" y="3070036"/>
-          <a:ext cx="2102562" cy="703314"/>
+          <a:off x="1033950" y="3292088"/>
+          <a:ext cx="2289730" cy="754203"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3032,7 +3044,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
@@ -3047,12 +3059,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.61502</cdr:x>
-      <cdr:y>0.45583</cdr:y>
+      <cdr:x>0.59709</cdr:x>
+      <cdr:y>0.50081</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.94295</cdr:x>
-      <cdr:y>0.58634</cdr:y>
+      <cdr:x>0.9522</cdr:x>
+      <cdr:y>0.63377</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3067,8 +3079,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4619959" y="2181098"/>
-          <a:ext cx="2463382" cy="624476"/>
+          <a:off x="4510547" y="2569624"/>
+          <a:ext cx="2682640" cy="682238"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3149,7 +3161,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="0070C0"/>
               </a:solidFill>
@@ -3164,12 +3176,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.20097</cdr:x>
-      <cdr:y>0.05526</cdr:y>
+      <cdr:x>0.16735</cdr:x>
+      <cdr:y>0.06819</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.63203</cdr:x>
-      <cdr:y>0.13019</cdr:y>
+      <cdr:x>0.63414</cdr:x>
+      <cdr:y>0.14367</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3184,8 +3196,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1509694" y="264414"/>
-          <a:ext cx="3238086" cy="358531"/>
+          <a:off x="1264177" y="349860"/>
+          <a:ext cx="3526298" cy="387286"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3263,7 +3275,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3278,12 +3290,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.27721</cdr:x>
-      <cdr:y>0.35937</cdr:y>
+      <cdr:x>0.28086</cdr:x>
+      <cdr:y>0.35965</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.87002</cdr:x>
-      <cdr:y>0.43434</cdr:y>
+      <cdr:x>0.92281</cdr:x>
+      <cdr:y>0.43513</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3297,9 +3309,9 @@
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20700000">
-          <a:off x="2082402" y="1719535"/>
-          <a:ext cx="4453111" cy="358722"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20640000">
+          <a:off x="2121653" y="1845367"/>
+          <a:ext cx="4849499" cy="387286"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3380,7 +3392,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3400,12 +3412,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.08745</cdr:x>
-      <cdr:y>0.55228</cdr:y>
+      <cdr:x>0.08835</cdr:x>
+      <cdr:y>0.55916</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.8025</cdr:x>
-      <cdr:y>0.88424</cdr:y>
+      <cdr:x>0.83747</cdr:x>
+      <cdr:y>0.88554</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3420,8 +3432,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="601763" y="2948832"/>
-          <a:ext cx="4920617" cy="1772462"/>
+          <a:off x="605366" y="2991791"/>
+          <a:ext cx="5132915" cy="1746250"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rtTriangle">
           <a:avLst/>
@@ -3576,13 +3588,26 @@
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-            <a:alpha val="90000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="67000">
+              <a:schemeClr val="bg1">
+                <a:alpha val="79000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="15000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+                <a:alpha val="80000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+          <a:tileRect/>
+        </a:gradFill>
       </cdr:spPr>
       <cdr:txBody>
         <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1">
@@ -3671,12 +3696,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09351</cdr:x>
-      <cdr:y>0.04598</cdr:y>
+      <cdr:x>0.08906</cdr:x>
+      <cdr:y>0.03252</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.77634</cdr:x>
-      <cdr:y>0.14161</cdr:y>
+      <cdr:x>0.80719</cdr:x>
+      <cdr:y>0.19952</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3691,21 +3716,35 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="642497" y="242900"/>
-          <a:ext cx="4691502" cy="505267"/>
+          <a:off x="610099" y="171802"/>
+          <a:ext cx="4919480" cy="882298"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:srgbClr val="FFE4E4">
-            <a:alpha val="84000"/>
-          </a:srgbClr>
-        </a:solidFill>
+        <a:gradFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="bg1">
+                <a:alpha val="79000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="72000">
+              <a:srgbClr val="FFE2E3"/>
+            </a:gs>
+            <a:gs pos="15000">
+              <a:srgbClr val="FFC5C6">
+                <a:alpha val="74000"/>
+              </a:srgbClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
       </cdr:spPr>
       <cdr:txBody>
         <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1">
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
@@ -3790,12 +3829,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.21225</cdr:x>
-      <cdr:y>0.35917</cdr:y>
+      <cdr:x>0.22206</cdr:x>
+      <cdr:y>0.36879</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.97207</cdr:x>
-      <cdr:y>0.46477</cdr:y>
+      <cdr:x>0.98188</cdr:x>
+      <cdr:y>0.47439</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3810,8 +3849,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20640000">
-          <a:off x="1465494" y="1897587"/>
-          <a:ext cx="5246213" cy="557886"/>
+          <a:off x="1533227" y="1948367"/>
+          <a:ext cx="5246227" cy="557906"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4207,15 +4246,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB89E97D-DC6B-DB41-89B8-F06F9218ECE9}">
   <dimension ref="A2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="125" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="B2">
         <v>1.56</v>
@@ -4230,7 +4269,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="B3">
         <v>1.56</v>
@@ -4245,7 +4284,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="B4">
         <v>1.76</v>
@@ -4263,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>1.0429999999999999</v>
+        <v>1.026</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4271,8 +4310,8 @@
         <v>1.4</v>
       </c>
       <c r="B8">
-        <f>$B$7-0.515*A8</f>
-        <v>0.32199999999999995</v>
+        <f>$B$7-0.478*A8</f>
+        <v>0.35680000000000012</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4280,8 +4319,8 @@
         <v>0.4</v>
       </c>
       <c r="B9">
-        <f>$B$7-0.515*A9</f>
-        <v>0.83699999999999997</v>
+        <f>$B$7-0.478*A9</f>
+        <v>0.83479999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4289,8 +4328,8 @@
         <v>0.85</v>
       </c>
       <c r="B10">
-        <f>$B$7-0.515*A10</f>
-        <v>0.60524999999999995</v>
+        <f>$B$7-0.478*A10</f>
+        <v>0.61970000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4306,8 +4345,8 @@
         <v>1.5</v>
       </c>
       <c r="B13">
-        <f>$B$12-0.515*A13</f>
-        <v>0.57750000000000012</v>
+        <f>$B$12-0.478*A13</f>
+        <v>0.63300000000000012</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4323,8 +4362,8 @@
         <v>1.5</v>
       </c>
       <c r="B16">
-        <f>$B$15-0.515*A16</f>
-        <v>0.97750000000000004</v>
+        <f>$B$15-0.478*A16</f>
+        <v>1.0329999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -4340,8 +4379,8 @@
         <v>1.5</v>
       </c>
       <c r="B19">
-        <f>$B$18-0.515*A19</f>
-        <v>1.6475</v>
+        <f>$B$18-0.478*A19</f>
+        <v>1.7029999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/correlation-to-add.xlsx
+++ b/correlation-to-add.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Articles/InTheWorks/Ullmann/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FA3A14-30E3-324B-8F43-8EB0571525FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ADF961-03B8-DF42-B31B-BF0B820075E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{3443FCC9-A221-2F4C-8F82-5290AC19409C}"/>
+    <workbookView xWindow="-1880" yWindow="-19300" windowWidth="28040" windowHeight="17040" xr2:uid="{3443FCC9-A221-2F4C-8F82-5290AC19409C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Corrected-Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Au</t>
   </si>
@@ -43,6 +44,15 @@
   </si>
   <si>
     <t>Cu</t>
+  </si>
+  <si>
+    <t>Delta: Ph-M binding</t>
+  </si>
+  <si>
+    <t>DE (x-SURF - SURF)</t>
+  </si>
+  <si>
+    <t>DE (X-CMC - CMC)</t>
   </si>
 </sst>
 </file>
@@ -156,7 +166,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B4044E1-587C-5B42-8750-8E4FD76E4342}" type="CELLRANGE">
+                    <a:fld id="{D466C19A-3E7C-5B42-967A-CD35890075AF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -179,7 +189,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-4D56-7947-B7E4-526E8FB3BC70}"/>
+                  <c16:uniqueId val="{00000000-3889-AD49-B594-44CAEA277A74}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -190,7 +200,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D68813D-833C-DF4B-8746-4C7F146D1F01}" type="CELLRANGE">
+                    <a:fld id="{BD19B314-9F20-0A49-B6CB-A9FED92E0017}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -213,7 +223,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-4D56-7947-B7E4-526E8FB3BC70}"/>
+                  <c16:uniqueId val="{00000001-3889-AD49-B594-44CAEA277A74}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -224,7 +234,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D22CC25-B86A-6149-BAD6-C42A9DD0818C}" type="CELLRANGE">
+                    <a:fld id="{12316A64-1683-1B4A-9745-43147FF93D4A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -247,7 +257,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-4D56-7947-B7E4-526E8FB3BC70}"/>
+                  <c16:uniqueId val="{00000002-3889-AD49-B594-44CAEA277A74}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -311,7 +321,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>'Corrected-Data'!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -329,15 +339,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>'Corrected-Data'!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.56</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.56</c:v>
+                  <c:v>1.31</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.76</c:v>
@@ -349,7 +359,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Sheet1!$D$2:$D$4</c15:f>
+                <c15:f>'Corrected-Data'!$D$2:$D$4</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
@@ -365,7 +375,7 @@
               </c15:datalabelsRange>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D56-7947-B7E4-526E8FB3BC70}"/>
+              <c16:uniqueId val="{00000003-3889-AD49-B594-44CAEA277A74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -400,7 +410,7 @@
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -412,7 +422,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>'Corrected-Data'!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -430,15 +440,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:f>'Corrected-Data'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>1.1400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.42</c:v>
+                  <c:v>1.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.6</c:v>
@@ -449,7 +459,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4D56-7947-B7E4-526E8FB3BC70}"/>
+              <c16:uniqueId val="{00000005-3889-AD49-B594-44CAEA277A74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -470,7 +480,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$8</c:f>
+              <c:f>'Corrected-Data'!$A$7:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -485,7 +495,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$8</c:f>
+              <c:f>'Corrected-Data'!$B$7:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -501,7 +511,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4D56-7947-B7E4-526E8FB3BC70}"/>
+              <c16:uniqueId val="{00000006-3889-AD49-B594-44CAEA277A74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -523,7 +533,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$12:$A$13</c:f>
+              <c:f>'Corrected-Data'!$A$12:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -538,7 +548,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$B$13</c:f>
+              <c:f>'Corrected-Data'!$B$12:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -554,7 +564,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5663-4841-AC3B-C6C92951516B}"/>
+              <c16:uniqueId val="{00000007-3889-AD49-B594-44CAEA277A74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -576,7 +586,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$15:$A$16</c:f>
+              <c:f>'Corrected-Data'!$A$15:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -591,7 +601,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$B$16</c:f>
+              <c:f>'Corrected-Data'!$B$15:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -607,7 +617,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000030-5663-4841-AC3B-C6C92951516B}"/>
+              <c16:uniqueId val="{00000008-3889-AD49-B594-44CAEA277A74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -629,7 +639,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$18:$A$19</c:f>
+              <c:f>'Corrected-Data'!$A$18:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -644,7 +654,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$B$19</c:f>
+              <c:f>'Corrected-Data'!$B$18:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -660,7 +670,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000031-5663-4841-AC3B-C6C92951516B}"/>
+              <c16:uniqueId val="{00000009-3889-AD49-B594-44CAEA277A74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1012,6 +1022,1433 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-6E33-5E44-89D7-A319C85339AB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="46"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6E33-5E44-89D7-A319C85339AB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EFAE2E31-3B0A-5942-A47C-B643FD7020F9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6E33-5E44-89D7-A319C85339AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C05C1361-F60F-7540-8738-CC3DA5483F07}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-6E33-5E44-89D7-A319C85339AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3040BC0F-751C-4540-9D96-5624249C3D38}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6E33-5E44-89D7-A319C85339AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Corrected-Data'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Corrected-Data'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Corrected-Data'!$D$2:$D$4</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>Au</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Ag</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Cu</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6E33-5E44-89D7-A319C85339AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Corrected-Data'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Corrected-Data'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.1400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6E33-5E44-89D7-A319C85339AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1627999344"/>
+        <c:axId val="1627980240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1627999344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Increased phenyl-adatom binding</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1627980240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1627980240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Metal-metal binding</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="41275">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1627999344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="25000"/>
+              <a:lumOff val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2800" b="0" i="0">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{20F48A79-6F95-104E-A9ED-C44A2AEC5EB2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4D56-7947-B7E4-526E8FB3BC70}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D6CAB4A4-A084-394C-8831-9026004A696D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-4D56-7947-B7E4-526E8FB3BC70}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E0DCA196-5E52-ED40-AE71-E39DBA236BD6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4D56-7947-B7E4-526E8FB3BC70}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$D$2:$D$4</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>Au</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Ag</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Cu</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D56-7947-B7E4-526E8FB3BC70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="50800" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.1"/>
+            <c:backward val="0.5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D56-7947-B7E4-526E8FB3BC70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35680000000000012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4D56-7947-B7E4-526E8FB3BC70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="44450" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$12:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63300000000000012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5663-4841-AC3B-C6C92951516B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0329999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000030-5663-4841-AC3B-C6C92951516B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$18:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7029999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000031-5663-4841-AC3B-C6C92951516B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1627999344"/>
+        <c:axId val="1627980240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1627999344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Δ: phenyl-metal binding enegy, eV</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1627980240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1627980240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.9"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy of unassisted extraction, eV</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="41275">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1627999344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="25000"/>
+              <a:lumOff val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000" b="0" i="0">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="46"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="46"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-332B-1B4A-8CD8-BD84C3464866}"/>
               </c:ext>
             </c:extLst>
@@ -1051,7 +2488,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{303C4439-05F2-A34E-84D0-682770F527FE}" type="CELLRANGE">
+                    <a:fld id="{582595D3-2B5A-684A-87A4-AC1EDCA2CC6F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1085,7 +2522,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3874007C-816B-D94A-96B8-C892502CB90B}" type="CELLRANGE">
+                    <a:fld id="{3C70267B-4380-7F40-B7E0-635EA2CB0F19}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1119,7 +2556,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{769890F0-E86E-B44A-8EBC-E31160C1C6A7}" type="CELLRANGE">
+                    <a:fld id="{94EA7292-11B2-4D47-9145-2BA1DD30B4CF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1858,6 +3295,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2375,6 +3892,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2910,11 +5459,13 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C3BC52-CA7D-1F4B-A356-B99EA0DF1554}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA78C99-718D-984F-987E-5B27B3A39FD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2946,7 +5497,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D90FA0-E91E-604A-8333-D158845EE19D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9374D462-4837-E447-8BCA-8DC81CFC8EB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3290,6 +5841,1625 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
+      <cdr:x>0.31207</cdr:x>
+      <cdr:y>0.57548</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95402</cdr:x>
+      <cdr:y>0.65096</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DCDEDA7-A9FA-694F-9B62-47D17F137D3F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20640000">
+          <a:off x="2336343" y="2952796"/>
+          <a:ext cx="4805968" cy="387286"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Line of thermoneutral assisted extraction</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.46337</cdr:x>
+      <cdr:y>0.54369</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.58603</cdr:x>
+      <cdr:y>0.71845</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404879A4-9151-D749-93AC-0EE43A7750FC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3454400" y="2844800"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08973</cdr:x>
+      <cdr:y>0.51254</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.58501</cdr:x>
+      <cdr:y>0.88371</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{806DF1B4-B736-C24F-9D6C-56480FCDD469}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="612859" y="2695884"/>
+          <a:ext cx="3382920" cy="1952257"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="55000">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="8100000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Efficient</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>adatom</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>catalysis</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.6607</cdr:x>
+      <cdr:y>0.03177</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97663</cdr:x>
+      <cdr:y>0.88434</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5BBF1A7-9F0E-E94F-B985-7436D94298F8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4512770" y="167123"/>
+          <a:ext cx="2157876" cy="4484337"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="71000">
+              <a:schemeClr val="bg1">
+                <a:alpha val="79000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="17000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+                <a:alpha val="80000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="10800000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>C-C bond formation on</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>adatoms </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>is slow</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08906</cdr:x>
+      <cdr:y>0.03252</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.79563</cdr:x>
+      <cdr:y>0.4869</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A724B4-5BB2-4C44-8434-EFD425EA7E32}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="608302" y="171050"/>
+          <a:ext cx="4826062" cy="2389967"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="57000">
+              <a:schemeClr val="bg1">
+                <a:alpha val="79000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="28000">
+              <a:srgbClr val="FFE2E3"/>
+            </a:gs>
+            <a:gs pos="2000">
+              <a:srgbClr val="FFC5C6">
+                <a:alpha val="74000"/>
+              </a:srgbClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Adatom extraction is difficult</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29047</cdr:x>
+      <cdr:y>0.19417</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.4008</cdr:x>
+      <cdr:y>0.33744</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="Oval 7">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F36794F-38B2-1545-B3C5-75C321D58E5A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1984008" y="1021281"/>
+          <a:ext cx="753570" cy="753570"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="22225"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.30171</cdr:x>
+      <cdr:y>0.21141</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.38678</cdr:x>
+      <cdr:y>0.3123</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F963C9C-78B5-E942-85EF-8A0ADD3801B0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2060768" y="1112002"/>
+          <a:ext cx="581057" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Au</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2800"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.56031</cdr:x>
+      <cdr:y>0.31308</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.67064</cdr:x>
+      <cdr:y>0.45635</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="Oval 9">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94EF031C-80F4-8540-AA0C-E885A5B0AFDC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3827083" y="1646729"/>
+          <a:ext cx="753570" cy="753570"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="22225"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85321</cdr:x>
+      <cdr:y>0.08231</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96354</cdr:x>
+      <cdr:y>0.22558</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="Oval 10">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94EF031C-80F4-8540-AA0C-E885A5B0AFDC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5827614" y="432924"/>
+          <a:ext cx="753570" cy="753570"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="22225"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.57656</cdr:x>
+      <cdr:y>0.33444</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.65876</cdr:x>
+      <cdr:y>0.43533</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03533F2-C1F6-8248-822C-5F2C4ACD3C4A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3938044" y="1759119"/>
+          <a:ext cx="561436" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ag</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2800"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.86756</cdr:x>
+      <cdr:y>0.0994</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95025</cdr:x>
+      <cdr:y>0.20029</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03533F2-C1F6-8248-822C-5F2C4ACD3C4A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5925670" y="522836"/>
+          <a:ext cx="564770" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cu</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2800"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>756596</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>67553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13511</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C3BC52-CA7D-1F4B-A356-B99EA0DF1554}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>241301</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D90FA0-E91E-604A-8333-D158845EE19D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.46337</cdr:x>
+      <cdr:y>0.54369</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.58603</cdr:x>
+      <cdr:y>0.71845</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404879A4-9151-D749-93AC-0EE43A7750FC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3454400" y="2844800"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13687</cdr:x>
+      <cdr:y>0.64161</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.43997</cdr:x>
+      <cdr:y>0.7886</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{806DF1B4-B736-C24F-9D6C-56480FCDD469}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1033950" y="3292088"/>
+          <a:ext cx="2289730" cy="754203"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Competitive adatom catalysis</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.59709</cdr:x>
+      <cdr:y>0.50081</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9522</cdr:x>
+      <cdr:y>0.63377</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5BBF1A7-9F0E-E94F-B985-7436D94298F8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4510547" y="2569624"/>
+          <a:ext cx="2682640" cy="682238"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>C-C bond formation on adatoms is slow</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.16735</cdr:x>
+      <cdr:y>0.06819</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.63414</cdr:x>
+      <cdr:y>0.14367</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A724B4-5BB2-4C44-8434-EFD425EA7E32}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1264177" y="349860"/>
+          <a:ext cx="3526298" cy="387286"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Adatom extraction is difficult</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
       <cdr:x>0.28086</cdr:x>
       <cdr:y>0.35965</cdr:y>
     </cdr:from>
@@ -3408,7 +7578,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -4243,11 +8413,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF6D027-22D6-E84E-BEDB-03A82BCB107E}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.44</v>
+      </c>
+      <c r="B2">
+        <v>1.5</v>
+      </c>
+      <c r="C2">
+        <f>B2-0.36</f>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.89</v>
+      </c>
+      <c r="B3">
+        <v>1.31</v>
+      </c>
+      <c r="C3">
+        <f>B3-0.14</f>
+        <v>1.17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1.39</v>
+      </c>
+      <c r="B4">
+        <v>1.76</v>
+      </c>
+      <c r="C4">
+        <f>B4-0.16</f>
+        <v>1.6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1.026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1.4</v>
+      </c>
+      <c r="B8">
+        <f>$B$7-0.478*A8</f>
+        <v>0.35680000000000012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.4</v>
+      </c>
+      <c r="B9">
+        <f>$B$7-0.478*A9</f>
+        <v>0.83479999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.85</v>
+      </c>
+      <c r="B10">
+        <f>$B$7-0.478*A10</f>
+        <v>0.61970000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1.5</v>
+      </c>
+      <c r="B13">
+        <f>$B$12-0.478*A13</f>
+        <v>0.63300000000000012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1.5</v>
+      </c>
+      <c r="B16">
+        <f>$B$15-0.478*A16</f>
+        <v>1.0329999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1.5</v>
+      </c>
+      <c r="B19">
+        <f>$B$18-0.478*A19</f>
+        <v>1.7029999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB89E97D-DC6B-DB41-89B8-F06F9218ECE9}">
   <dimension ref="A2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="125" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView topLeftCell="M5" zoomScale="125" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
